--- a/medicine/Enfance/Neal_Shusterman/Neal_Shusterman.xlsx
+++ b/medicine/Enfance/Neal_Shusterman/Neal_Shusterman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neal Shusterman, né le 12 novembre 1962 à Brooklyn, est un romancier, poète et scénariste américain, spécialisé dans le roman policier, la science-fiction, le fantastique et la littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neal Shusterman grandit dans son quartier natal défavorisé de Brooklyn. Il termine ses études secondaires grâce à une bourse de l'American School Fondation. Il poursuit ses études à l'université de Californie à Irvine, où il obtient des diplômes en psychologie et en art dramatique. Grand sportif, il est également membre de l'équipe de natation de l'université. Pendant ses années d'études en Californie, il tient une chronique humoristique dans le journal universitaire.
 Après ses études, il travaille un temps dans une agence d'artistes de Los Angeles qui prend bientôt en charge sa propre carrière. Il publie son premier roman en 1988 et se spécialise rapidement dans la littérature d'enfance et de jeunesse, y abordant successivement ou mêlant dans ses récits les genres populaires du roman policier, du fantastique et de la science-fiction.
@@ -547,47 +561,393 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-(en) Shadows of Doubt, 1993
-Romans
-Série The Shadow Club
-(en) The Shadow Club, 1988
-(en) The Shadow Club Rising, 2003
-Série Dark Fusion
-(en) Dread Locks, 2005
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Shadows of Doubt, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série The Shadow Club</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Shadow Club, 1988
+(en) The Shadow Club Rising, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Dark Fusion</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Dread Locks, 2005
 (en) Red Rider's Hood, 2005
-(en) Ducking Ugly, 2006
-Série La Trilogie des Illumières
-L'Éternéant, Le Masque, 2011 ((en) Everlost, 2006), trad. Alexandre Boldrini et Anne-Judith Descombey  (ISBN 978-2-7024-3532-8)
+(en) Ducking Ugly, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série La Trilogie des Illumières</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Éternéant, Le Masque, 2011 ((en) Everlost, 2006), trad. Alexandre Boldrini et Anne-Judith Descombey  (ISBN 978-2-7024-3532-8)
 Le Voyage des âmes perdues, Le Masque, 2013 ((en) Everwild, 2009), trad. Claire Breton  (ISBN 978-2-7024-3533-5)
-La Cité des âmes, Le Masque, 2013 ((en) Everfound, 2011), trad. Marianne Roumy  (ISBN 978-2-7024-3534-2)
-Série Éclats d'étoile
-Éclats d'étoile, Robert Laffont, coll. « R », 2021 ((en) Scorpion Shards, 1995), trad. Cécile Ardilly  (ISBN 978-2-221-21841-9)
+La Cité des âmes, Le Masque, 2013 ((en) Everfound, 2011), trad. Marianne Roumy  (ISBN 978-2-7024-3534-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Éclats d'étoile</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Éclats d'étoile, Robert Laffont, coll. « R », 2021 ((en) Scorpion Shards, 1995), trad. Cécile Ardilly  (ISBN 978-2-221-21841-9)
 Le Dévoreur d'âmes, Robert Laffont, coll. « R », 2021 ((en) Thief of Souls, 1999), trad. Cécile Ardilly  (ISBN 978-2-221-21842-6)
-Supernovas, Robert Laffont, coll. « R », 2022 ((en) Shattered Sky, 2002), trad. Cécile Ardilly  (ISBN 978-2-221-21843-3)
-Série Les Fragmentés
-Les Fragmentés, Le Masque, 2008 ((en) Unwind, 2007), trad. Émile Passerieux  (ISBN 978-2-7024-3391-1)Réédition, Le Masque, coll. « Masque poche » no 23, 2013  (ISBN 978-2-7024-3929-6)
+Supernovas, Robert Laffont, coll. « R », 2022 ((en) Shattered Sky, 2002), trad. Cécile Ardilly  (ISBN 978-2-221-21843-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Les Fragmentés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Fragmentés, Le Masque, 2008 ((en) Unwind, 2007), trad. Émile Passerieux  (ISBN 978-2-7024-3391-1)Réédition, Le Masque, coll. « Masque poche » no 23, 2013  (ISBN 978-2-7024-3929-6)
 Le Peuple d'Argent ((en) UnStrung, 2012), nouvelle reprise dans une réédition du premier roman
 Les Déconnectés, Le Masque, 2013 ((en) UnWholly, 2012), trad. Raphaëlle Vigneron  (ISBN 978-2-7024-3842-8)
 Les Éclairés, Le Masque, 2014 ((en) UnSouled, 2013), trad. Catherine Biros  (ISBN 978-2-7024-4086-5)
 Les Libérés, Le Masque, 2015 ((en) UnDivided, 2014), trad. Sébastien Guillot  (ISBN 978-2-7024-4095-7)
-(en) Unbound, 2015, recueil de nouvelles de l'univers de la série (contient la nouvelle Unstrung)
-Série La Faucheuse
-La Faucheuse, Robert Laffont, coll. « R », 2017 ((en) Scythe, 2016), trad. Cécile Ardilly  (ISBN 978-2-221-19867-4)
+(en) Unbound, 2015, recueil de nouvelles de l'univers de la série (contient la nouvelle Unstrung)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série La Faucheuse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Faucheuse, Robert Laffont, coll. « R », 2017 ((en) Scythe, 2016), trad. Cécile Ardilly  (ISBN 978-2-221-19867-4)
 Thunderhead, Robert Laffont, coll. « R », 2018 ((en) Thunderhead, 2018), trad. Stéphanie Leigniel  (ISBN 978-2-221-20029-2)
 Le Glas, Robert Laffont, coll. « R », 2019 ((en) The Toll, 2018), trad. Cécile Ardilly  (ISBN 978-2-221-20030-8)
-Histoires secrètes, Robert Laffont, coll. « R », 2023 ((en) Gleanings, 2022), trad. Dominique Haas et Stéphanie Leigniel  (ISBN 978-2-221-26712-7), recueil de nouvelles de l'univers de la série
-Série The Accelerati Trilogy
-Cette série est coécrite avec Eric Elfman (en).
+Histoires secrètes, Robert Laffont, coll. « R », 2023 ((en) Gleanings, 2022), trad. Dominique Haas et Stéphanie Leigniel  (ISBN 978-2-221-26712-7), recueil de nouvelles de l'univers de la série</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série The Accelerati Trilogy</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Eric Elfman (en).
 (en) Tesla's Attic, 2014
 (en) Edison's Alley, 2015
-(en) Hawking's Hallway, 2016
-Série The N.O.A.H Files
-Cette série est coécrite avec Eric Elfman (en).
+(en) Hawking's Hallway, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série The N.O.A.H Files</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Eric Elfman (en).
 (en) I Am the Walrus, 2023
-(en) Schock The Monkey, 2024
-Romans indépendants
-(en) Dissidents, 1989
+(en) Schock The Monkey, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Dissidents, 1989
 (en) Speeding Bullet, 1991
 (en) What Daddy Did, 1991
 (en) The Eyes of Kid Midas, 1992
@@ -601,26 +961,174 @@
 Le Goût amer de l'abîme, Nathan, 2018 ((en) Challenger Deep, 2015), trad. Lilas Nord  (ISBN 978-2-09-257676-2)
 Dry, Robert Laffont, coll. « R », 2018 ((en) Dry, 2018), trad. Cécile Ardilly  (ISBN 978-2-221-22107-5)Coécrit avec Jarrod Shusterman.
 Le Déclencheur, Nathan, 2022 ((en) Game Changer, 2021), trad. Eva Grynszpan  (ISBN 978-2-09-249399-1)
-D.R.U.G.S., Casterman, 2023 ((en) Roxy, 2021), trad. Corinne Daniellot  (ISBN 978-2-20-324045-2)Coécrit avec Jarrod Shusterman.
-Romans signés Easton Royce
-Série X-Files Universe
+D.R.U.G.S., Casterman, 2023 ((en) Roxy, 2021), trad. Corinne Daniellot  (ISBN 978-2-20-324045-2)Coécrit avec Jarrod Shusterman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Romans signés Easton Royce</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Série X-Files Universe
 (en) 8 Voltage, 1996
 (en) 3 Bad SignMM, 1997
 (en) 10 Dark Matter, 1999
 Série Space Above and Beyond
 (en) The Aliens Approach, 1996
-(en) Mutiny, 1996
-Recueils de nouvelles
-Série Darkness Creeping
-(en) Neal Shusterman's Darkness Creeping: Tales to Trouble Your Sleep, 1993
+(en) Mutiny, 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Darkness Creeping</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(en) Neal Shusterman's Darkness Creeping: Tales to Trouble Your Sleep, 1993
 (en) Neal Shusterman's Darkness Creeping II: More Tales to Trouble Your Sleep, 1995
-(en) Darkness Creeping: Twenty Twisted Tales, 2007
-Autres recueils de nouvelles
-(en) Mindquakes: Stories to Shatter Your Brain, 1996
+(en) Darkness Creeping: Twenty Twisted Tales, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Autres recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(en) Mindquakes: Stories to Shatter Your Brain, 1996
 (en) Mindstorms: Stories to Blow Your Mind, 1996
 (en) Mindtwisters: Stories To Shred Your Head, 1997
-(en) Mindbenders: Stories to Warp Your Brain
-Nouvelles
+(en) Mindbenders: Stories to Warp Your Brain</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (en) Alexander's Skull, 1993
 (en) Black Box
 (en) Car Four, 1993
@@ -671,8 +1179,43 @@
 (en) The River Tour
 (en) Who Do We Appreciate?, 2007
 (en) Perpetual Pest, 2010Coécrit avec Terry Black.
-Autres publications
-(en) Guy Talk, 1987
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(en) Guy Talk, 1987
 (en) It's Ok to Say No to Cigarettes and Alcohol, 1988
 (en) Neon Angel: The Cherie Currie Story, 1989Coécrit avec Cherie Currie.
 (en) Kid Heroes: True Stories of Rescuers, Survivors, and Achievers, 1991
@@ -683,41 +1226,86 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Neal_Shusterman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant que scénariste
-À la télévision
-1996-1998 : Chair de poule (Goosebumps), série télévisée américaine créée par R. L. Stine. Neal Shusterman est le scénariste de 7 épisodes.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1996-1998 : Chair de poule (Goosebumps), série télévisée américaine créée par R. L. Stine. Neal Shusterman est le scénariste de 7 épisodes.
 1998 : Animorphs, série télévisée canadienne créée par Katherine Alice Applegate. Neal Shusterman est scénariste de 6 épisodes.
 2004 : Star idéale (Pixel Perfect), téléfilm américain de Mark A.Z. Dippe, avec Ricky Ullman et Leah Pipes
-2011 : L'Heure de la peur (R.L. Stine's The Haunting Hour), série télévisée américaine créée par R. L. Stine. Neal Shusterman est le scénariste de 2 épisodes.
-Adaptation
-Au cinéma
-1994 : Double Dragon, film américain réalisé par James Yukich, avec Scott Wolf, Mark Dacascos et Alyssa Milano</t>
+2011 : L'Heure de la peur (R.L. Stine's The Haunting Hour), série télévisée américaine créée par R. L. Stine. Neal Shusterman est le scénariste de 2 épisodes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neal_Shusterman</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1994 : Double Dragon, film américain réalisé par James Yukich, avec Scott Wolf, Mark Dacascos et Alyssa Milano</t>
         </is>
       </c>
     </row>
